--- a/Story Ideas/Maps & Locations/DiagonAlley.xlsx
+++ b/Story Ideas/Maps & Locations/DiagonAlley.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="128">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -59,6 +59,27 @@
   </si>
   <si>
     <t xml:space="preserve">Diagon Alley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barnabus Cuffe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The editor-in-chief of the Daily Prophet for several decades, Barnabus Cuffe is an affable gentleman – always seen wearing an impeccable suit and tie underneath a formal wizarding gown. 
+His affable demeanor is, however, mostly for show and beneath the surface he is a man consumed with the need to accumulate and gather power and influence. He will let nothing (let alone the truth) get in the way of his media empire. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newspaper Printers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An unassuming building, without a formal shopfront. 
+The only indicators that this is anything other than a residential house is a formal plaque next to the door, and a dispenser for the Daily Prophet on the street outside. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The interior is significantly larger than the exterior, and houses a full magical printing press, as well as several offices for the prominent journalists. 
+The office of the editor is on the second level, but with a large window capable of overseeing the entire operation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily Prophet (\knut{8})</t>
   </si>
   <si>
     <t xml:space="preserve">Eeylops Owl Emporium</t>
@@ -298,16 +319,62 @@
     <t xml:space="preserve">Slug \&amp; Jiggers Apothecary</t>
   </si>
   <si>
+    <t xml:space="preserve">Jemima Poffley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A young woman in her mid-twenties, with closely cropped hair and a large pair of glasses. 
+She has a nervous stutter, and seem unsure of herself – until she starts talking about alchemical ingredients, at which point she becomes filled with confidence. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The outside of the shop is almost entiely obscured by a thick rolling fog that seems to be coming from a top floor window. Every few minutes, there’s a loud {\it crack} sound, and the colour of the smoke changes – usually accompanied by some choice curses. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inside the air is clean and fresh, and smells of fresh picked grass and other herbs. 
+Various alchemical supplies line the walls in neat little jars, meticulously labelled. 
+The centre of the room has some larger merchandise – cauldrons and alchemical filters. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">alchemyList</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sugarplum Sweetshop</t>
   </si>
   <si>
+    <t xml:space="preserve">Jo King</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An elderly man, with bright blue hair, and only a single tooth. 
+A talks with a lisp, but is full of vim and vigour. He has a special (non creepy) fondness for children, and delights in finding them new sweets that they have  never experienced before. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The window is stacked full of displays showcasing sweets and treats – from old favourites to the newest imports. 
+A goblin employee outside stands with a tray of free samples, attempting (though mostly failing) to entice people inside. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An amazingly stocked, traditional sweet shop. Enormous jars filled with goodies line every wall, and children dart around filling up paper bags with their favourite sweets. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acid Pops (\knut{12})
+Bertie Botts Every Flavour Beans (\knut{5})
+Chocolate Frogs (pack of 3 - \sickle{1})
+Fizzing Whisbees (\sickle{1})
+Liquorice Wands (\knut{15}) 
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Junk Shop</t>
   </si>
   <si>
     <t xml:space="preserve">Lomp</t>
   </si>
   <si>
-    <t xml:space="preserve">Unmistakeably a man with significant amounts of giant blood in him, Lomp stands a full 8 feet tall, and seems almost as wide. 
+    <t xml:space="preserve">Unmistakeably a man with significant amounts of giant blood in him, Lomp stands a full 7 feet tall, and seems almost as wide. 
 Matted blond hair falls to his mid back, and his outfit is an insane medley of colours and styles. His fingers have an assortment of rings and other decorations (most of which are hideous and obviously made of actual rubbish). 
 He is very possessive of the stuff in his shop, and gets very defensive when it is insulted as useless. </t>
   </si>
@@ -328,6 +395,26 @@
     <t xml:space="preserve">Weasley\apos{}s Wizard Wheezes</t>
   </si>
   <si>
+    <t xml:space="preserve">George Weasley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A one-eared, red-haired jokester, who spends most of his time playing pranks on his customers, rather than trying to sell them anything. 
+Unusually, however, this business model has turned out to be an incredible success, and George and his brother Ron have turned this into a successful business.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prank shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A prominent shop, right on the street corner, made even more noticeable by the large weasley-esque statue mounted atop the frontage. This statue is known to make rude gestures and blow raspberries at passers by. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wide open shop floor, with a cacophany of noise as George prances round, demonstrating his wares. 
+Small alcoves are found at the back where the pricier items are held, and in the front are vast vats of their best selling items.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weasleyList</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wiseacre\apos{}s Wizarding Equipment</t>
   </si>
   <si>
@@ -350,6 +437,18 @@
   </si>
   <si>
     <t xml:space="preserve">White Wyvern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warcasters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venter Alley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simon\apos{}s Simple Shields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry Portal</t>
   </si>
 </sst>
 </file>
@@ -463,10 +562,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -477,13 +576,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="32.06"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="25.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="23.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="22.12"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="27.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -515,7 +614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -525,208 +624,226 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="113.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="113.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="113.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="136.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="102.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="125.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="91.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="113.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -734,225 +851,312 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="80.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="113.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="170.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="170.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="113.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>94</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Story Ideas/Maps & Locations/DiagonAlley.xlsx
+++ b/Story Ideas/Maps & Locations/DiagonAlley.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="129">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -449,6 +449,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ministry Portal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flibberdigibits \&amp; Watchemacallems</t>
   </si>
 </sst>
 </file>
@@ -463,6 +466,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -484,6 +488,7 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -543,12 +548,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -562,19 +567,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.96"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="32.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="32.07"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="25.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="23.72"/>
@@ -1157,6 +1162,11 @@
       </c>
       <c r="C26" s="1" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/Story Ideas/Maps & Locations/DiagonAlley.xlsx
+++ b/Story Ideas/Maps & Locations/DiagonAlley.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\Story Ideas\Maps &amp; Locations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77869187-A664-4AFC-8D50-77FF12701C18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2740D7-FD9A-4B62-B416-BB50BC7C0275}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AMK$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="217">
   <si>
     <t>ID</t>
   </si>
@@ -723,6 +723,39 @@
   <si>
     <t xml:space="preserve">Inside more weapons can be found, strapped meticulously in order, arranged by type, price and enchantment level. 
 The air is heavy with the scent of weapon oil and magic. </t>
+  </si>
+  <si>
+    <t>MapID</t>
+  </si>
+  <si>
+    <t>The Graphorn and Merman</t>
+  </si>
+  <si>
+    <t>Orton Barba</t>
+  </si>
+  <si>
+    <t>An incredibly handsome man in his early thirties. Tanned skin and dark hair, a jawline to die for and a shirt with just a few more buttons undone than you would expect (not that you\apos{}re complaining). He speaks with a hint of a spanish or portugese accent.</t>
+  </si>
+  <si>
+    <t>High-end dining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This storefront immediately stands out as being modern and minimalistic - matt black paint with no additional decorations beyond the sign bearing the name, written in elaborately gilded letters. </t>
+  </si>
+  <si>
+    <t>Inside is a sophisticated restaurant, decorated with a continuation of the minimalist theme seen outside: dark and black, though not dingy. There is hushed conversation from the guests, interpsersed with gasps of awe as their food is brought to them.</t>
+  </si>
+  <si>
+    <t>Taster menu: \galleon{1} \sickle{5} per person</t>
+  </si>
+  <si>
+    <t>Ministry Square</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Open Space</t>
   </si>
 </sst>
 </file>
@@ -1086,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK29"/>
+  <dimension ref="A1:AMK31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1098,16 +1131,16 @@
     <col min="2" max="2" width="23" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" style="1"/>
     <col min="4" max="4" width="12.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="44.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="1025" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1138,829 +1171,965 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="K1" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="127.5" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="140.25" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>207</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>121</v>
+        <v>208</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="114.75" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="178.5" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="114.75" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="K7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="127.5" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="127.5" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="K10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="165.75" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="191.25" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="K12" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="204" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="K14" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="127.5" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K15" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="127.5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="K18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="127.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="127.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:11" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="178.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:11" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="102" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>115</v>
+        <v>214</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K23" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="K24" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K25" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K26" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>21</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K27" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>22</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="K28" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>20</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K29" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>201</v>
+      <c r="B30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K30" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>18</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K31" s="1">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J24" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J29">
-      <sortCondition ref="C1:C24"/>
+  <autoFilter ref="A1:AMK1" xr:uid="{615284C9-6A13-47A9-93F0-E2A0D3F2F521}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AMK31">
+      <sortCondition ref="K1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
